--- a/Project Outputs for Twintig-Carpus/BOM/Bill of Materials-Twintig-Carpus.xlsx
+++ b/Project Outputs for Twintig-Carpus/BOM/Bill of Materials-Twintig-Carpus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\x-io\Services\MICA Lab\Twintig\Twintig-Carpus\Project Outputs for Twintig-Carpus\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77D2F44D-6E83-477E-B75A-9D835F314AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9367A24F-C8B2-4662-A5C9-0405A23C7566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37480" yWindow="2370" windowWidth="28610" windowHeight="19110" xr2:uid="{7742E336-14A5-4544-A8EF-5E8DBB86E5DC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{6B35C30D-672E-4F7E-AE94-9F4CBEE1AF46}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Twintig-Carpu" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
     <t>R4, R5, R6, R7, R8_CH1, R8_CH2, R8_CH3, R8_CH4, R8_CH5, R9_CH1, R9_CH2, R9_CH3, R9_CH4, R9_CH5</t>
   </si>
   <si>
-    <t>4.7kR</t>
+    <t>2.2kR</t>
   </si>
   <si>
     <t>U1</t>
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F5B738-6116-49BA-9A0E-DDFD22E7C433}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C9036C-B67A-43BC-BE2B-237D55FB6895}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
